--- a/China_Schach.xlsx
+++ b/China_Schach.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\Temp\gse2_chinesisches_schach\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DC6337-0B32-4FED-9FA4-77BB637934DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Klassen" sheetId="1" r:id="rId4"/>
-    <sheet name="Assoziationen" sheetId="2" r:id="rId5"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId6"/>
+    <sheet name="Klassen" sheetId="1" r:id="rId1"/>
+    <sheet name="Assoziationen" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Klassenkandidaten</t>
   </si>
   <si>
-    <t>XiangQi</t>
-  </si>
-  <si>
     <t>WS 21/22</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>wieviele/welche Instanzen</t>
-  </si>
-  <si>
     <t>Unterarten</t>
   </si>
   <si>
@@ -42,14 +44,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>(Besteht aus 72 Feldern) -90 Schnittpunkte</t>
-  </si>
-  <si>
     <t>Spieler</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Name: String
@@ -58,13 +53,6 @@
   </si>
   <si>
     <t>Schnittpunkt</t>
-  </si>
-  <si>
-    <t>Koordinate(a-i, 1-10)
-Spalten a-i
-Zeilen 1-10
-Startpunkt: bool
-Punkttyp (Normal, Festung, Fluss)</t>
   </si>
   <si>
     <t>Spielfigur</t>
@@ -79,47 +67,19 @@
 Bauer</t>
   </si>
   <si>
-    <t>Farbe (rot, schwarz)
-Position: Schnittpunkt -Bewegungsoptionen
-Geschlagen: bool</t>
-  </si>
-  <si>
     <t>Kaiser</t>
   </si>
   <si>
-    <t>Muss in Festung bleiben
-Zieht Nur 1 Waagrecht oder Senkrecht</t>
-  </si>
-  <si>
     <t>Mandarin</t>
   </si>
   <si>
-    <t>Muss in Festung bleiben
-Darf nur 1 Diagonal ziehen</t>
-  </si>
-  <si>
     <t>Elefant</t>
   </si>
   <si>
-    <t>Darf nicht über den Fluss
-Muss 2 Diagonal ziehen</t>
-  </si>
-  <si>
     <t>Reiter</t>
   </si>
   <si>
-    <t>1 Teil der Bewegung -Senkrecht oder waagrecht -Position muss frei sein -2 Teil der Bewegung -Diagonal in die Bewegungsrichtung</t>
-  </si>
-  <si>
     <t>Turm</t>
-  </si>
-  <si>
-    <t>Darf Waagrecht und Senkrecht bewegen</t>
   </si>
   <si>
     <t>Geschütz</t>
@@ -130,12 +90,6 @@
   </si>
   <si>
     <t>Bauer</t>
-  </si>
-  <si>
-    <t>Darf 1 Zug vorwärts ziehen -Hinter dem Fluss 
-Auch 1 Waagrecht ziehen
-Ist in Gegnerischer Hälfte</t>
   </si>
   <si>
     <t>Control-Klasse
@@ -155,111 +109,155 @@
     <t>Teilnehmer:</t>
   </si>
   <si>
+    <t>Kandidaten für Assoziationen</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>zwischen Klasse</t>
+  </si>
+  <si>
+    <t>und Klasse</t>
+  </si>
+  <si>
+    <t>Multiplizität her</t>
+  </si>
+  <si>
+    <t>Multiplizität hin</t>
+  </si>
+  <si>
+    <t>Spielt mit</t>
+  </si>
+  <si>
+    <t>Steht auf</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>Ist Teil von</t>
+  </si>
+  <si>
+    <t>Prüft Zug von</t>
+  </si>
+  <si>
+    <t>Control-Klasse</t>
+  </si>
+  <si>
+    <t>Ist abgeleitet von</t>
+  </si>
+  <si>
+    <t>Spielt auf</t>
+  </si>
+  <si>
+    <t>Farbe (rot, schwarz)
+Position: Schnittpunkt
+Bewegungsoptionen
+Geschlagen: bool</t>
+  </si>
+  <si>
+    <t>(Besteht aus 72 Feldern)
+90 Schnittpunkte</t>
+  </si>
+  <si>
     <t>Sergej Bakanow,
 Denis Troccolo,
 Dennis Adler,
-Dennis Schneider, +Dennis Schneider,
 Noah Schmidt,
 Marvin Simon</t>
   </si>
   <si>
-    <t>Kandidaten für Assoziationen</t>
-  </si>
-  <si>
-    <t>Bezeichnung</t>
-  </si>
-  <si>
-    <t>zwischen Klasse</t>
-  </si>
-  <si>
-    <t>und Klasse</t>
-  </si>
-  <si>
-    <t>Multiplizität her</t>
-  </si>
-  <si>
-    <t>Multiplizität hin</t>
-  </si>
-  <si>
-    <t>Spielt mit</t>
-  </si>
-  <si>
-    <t>Steht auf</t>
-  </si>
-  <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>Ist Teil von</t>
-  </si>
-  <si>
-    <t>Prüft Zug von</t>
-  </si>
-  <si>
-    <t>Control-Klasse</t>
-  </si>
-  <si>
-    <t>Ist abgeleitet von</t>
-  </si>
-  <si>
-    <t>Spielt auf</t>
-  </si>
-  <si>
-    <t>Muss im Palast bleiben
-Nur 1 Waagrecht oder Senkrecht</t>
-  </si>
-  <si>
-    <t>Muss im Palast bleiben
-Darf nur 1 Diagonal</t>
+    <t>Koordinate(a-i, 1-10)
+Spalten: a-i
+Zeilen: 1-10
+Startpunkt: bool
+Punkttyp (Normal, Festung, Fluss)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wie viele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>/welche Instanzen</t>
+    </r>
+  </si>
+  <si>
+    <t>China-Schach</t>
+  </si>
+  <si>
+    <t>Muss in Festung bleiben
+Zieht nur 1 waagrecht oder senkrecht</t>
+  </si>
+  <si>
+    <t>Darf waagrecht und senkrecht bewegen</t>
+  </si>
+  <si>
+    <t>Darf 1 Zug vorwärts ziehen
+Hinter dem Fluss 
+Auch 1 waagrecht ziehen
+Ist in der gegnerischen Hälfte</t>
+  </si>
+  <si>
+    <t>Muss in Festung bleiben
+Darf nur 1 diagonal ziehen</t>
   </si>
   <si>
     <t>Darf nicht über den Fluss
-Muss 2 Diagonal</t>
-  </si>
-  <si>
-    <t>Braucht “Schild” zum angreifen
-Bewegt sich wie Turm</t>
-  </si>
-  <si>
-    <t>Darf 1 Zug vorwärts -Nur nach dem Fluss 
-1 Waagrecht</t>
+Muss 2 diagonal ziehen</t>
+  </si>
+  <si>
+    <t>1. Teil der Bewegung
+Senkrecht oder waagrecht
+Position muss frei sein
+2. Teil der Bewegung
+Diagonal in die Bewegungsrichtung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -368,127 +366,169 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,7 +730,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -709,7 +749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,7 +805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +831,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -817,7 +857,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -843,7 +883,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +909,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,7 +935,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +961,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +987,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,9 +1000,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -979,7 +1025,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -998,7 +1044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,9 +1291,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1261,7 +1313,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1280,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1440,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +1492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,7 +1518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,7 +1544,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1518,7 +1570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,295 +1583,304 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" t="s" s="5">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="B3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="24.65" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="D4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="11">
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" ht="35.65" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="B7" s="13">
+        <v>90</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="79.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="B9" s="17">
+        <v>32</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="13">
+      <c r="D9" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="57.65" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="16">
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="79.65" customHeight="1">
-      <c r="A9" t="s" s="18">
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s" s="16">
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s" s="16">
+      <c r="B14" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="24.65" customHeight="1">
-      <c r="A10" t="s" s="20">
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="13">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" ht="24.65" customHeight="1">
-      <c r="A11" t="s" s="20">
+      <c r="B16" s="13">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="14">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="13">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" ht="24.65" customHeight="1">
-      <c r="A12" t="s" s="20">
+      <c r="C18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="14">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="13">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" ht="57.65" customHeight="1">
-      <c r="A13" t="s" s="20">
-        <v>24</v>
-      </c>
-      <c r="B13" s="14">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="20">
-        <v>26</v>
-      </c>
-      <c r="B14" s="14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" ht="24.65" customHeight="1">
-      <c r="A15" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="B15" s="14">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" ht="46.65" customHeight="1">
-      <c r="A16" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="B16" s="14">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" ht="57.65" customHeight="1">
-      <c r="A18" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" t="s" s="20">
-        <v>35</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" ht="68.65" customHeight="1">
-      <c r="A21" t="s" s="21">
-        <v>36</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1827,8 +1888,8 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A17:D17"/>
   </mergeCells>
-  <pageMargins left="0.787402" right="0.787402" top="0.984252" bottom="0.984252" header="0.492126" footer="0.492126"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78740200000000005" right="0.78740200000000005" top="0.98425200000000002" bottom="0.98425200000000002" header="0.49212600000000001" footer="0.49212600000000001"/>
+  <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Klassenkandidaten Gefährdungsbeurteilung</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K00000028.10.21&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Gruppe1&amp;R&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -1837,462 +1898,316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="25" customWidth="1"/>
-    <col min="2" max="2" width="22.3516" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="25" customWidth="1"/>
-    <col min="4" max="5" width="13.5" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="25" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13">
+        <v>90</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s" s="3">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s" s="8">
+    </row>
+    <row r="10" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s" s="8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="D5" s="26">
-        <v>1</v>
-      </c>
-      <c r="E5" s="26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14">
-        <v>90</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D11" s="27">
-        <v>1</v>
-      </c>
-      <c r="E11" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D14" s="27">
-        <v>1</v>
-      </c>
-      <c r="E14" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D15" s="27">
-        <v>1</v>
-      </c>
-      <c r="E15" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="20">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="D16" s="27">
-        <v>2</v>
-      </c>
-      <c r="E16" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" t="s" s="20">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="68.65" customHeight="1">
-      <c r="A21" t="s" s="21">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.787402" right="0.787402" top="0.984252" bottom="0.984252" header="0.511811" footer="0.511811"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0.78740200000000005" right="0.78740200000000005" top="0.98425200000000002" bottom="0.98425200000000002" header="0.51181100000000002" footer="0.51181100000000002"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Assoziationskandidaten Gefährdungsbeurteilung</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K00000028.10.21&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Gruppe 1&amp;R&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="3" width="10.8516" style="28" customWidth="1"/>
-    <col min="4" max="4" width="36.6719" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.65" customHeight="1">
-      <c r="A1" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="B1" s="27">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="29">
-        <v>51</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" ht="24.65" customHeight="1">
-      <c r="A2" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="B2" s="27">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="29">
-        <v>52</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="24.65" customHeight="1">
-      <c r="A3" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="B3" s="27">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="29">
-        <v>53</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="57.65" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="B4" s="27">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="B5" s="27">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" ht="24.65" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="B6" s="27">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="29">
-        <v>54</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="35.65" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="B7" s="27">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="29">
-        <v>55</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.787402" right="0.787402" top="0.984252" bottom="0.984252" header="0.492126" footer="0.492126"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/China_Schach.xlsx
+++ b/China_Schach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\Temp\gse2_chinesisches_schach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DC6337-0B32-4FED-9FA4-77BB637934DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865771F9-9A71-4C0D-B782-42E7BE579BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -442,6 +442,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1902,7 +1905,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2193,8 +2196,8 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3"/>

--- a/China_Schach.xlsx
+++ b/China_Schach.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\Temp\gse2_chinesisches_schach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Desktop\Software Engineering\2. Semester\GSE2\Aufgaben\Brettspiel\gse2_chinesisches_schach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865771F9-9A71-4C0D-B782-42E7BE579BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723DFDFA-C9AE-47A4-AD19-F53184B36E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>Klassenkandidaten</t>
   </si>
@@ -421,10 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -445,6 +441,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1614,21 +1614,21 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="3"/>
@@ -1637,18 +1637,18 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1669,12 +1669,12 @@
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1689,14 +1689,14 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1706,19 +1706,19 @@
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="79.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="79.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
@@ -1728,12 +1728,12 @@
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
@@ -1743,12 +1743,12 @@
       <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
@@ -1758,12 +1758,12 @@
       <c r="C11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
@@ -1773,12 +1773,12 @@
       <c r="C12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
@@ -1788,12 +1788,12 @@
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
@@ -1803,12 +1803,12 @@
       <c r="C14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>19</v>
       </c>
@@ -1833,19 +1833,19 @@
       <c r="C16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
@@ -1860,14 +1860,14 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="D20" s="21"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
@@ -1904,33 +1904,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="148" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="23"/>
+    <col min="1" max="1" width="34.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="23" customWidth="1"/>
+    <col min="4" max="5" width="13.44140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="10.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="3"/>
@@ -1938,14 +1938,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1962,8 +1962,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1979,7 +1979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1992,11 +1992,11 @@
       <c r="D6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2013,8 +2013,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2030,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2166,28 +2166,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
@@ -2196,8 +2196,8 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3"/>

--- a/China_Schach.xlsx
+++ b/China_Schach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Desktop\Software Engineering\2. Semester\GSE2\Aufgaben\Brettspiel\gse2_chinesisches_schach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723DFDFA-C9AE-47A4-AD19-F53184B36E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F272518C-1855-40BF-B634-AE4C2E0D91FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Klassenkandidaten</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Control-Klasse</t>
-  </si>
-  <si>
-    <t>Ist abgeleitet von</t>
   </si>
   <si>
     <t>Spielt auf</t>
@@ -1629,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
@@ -1649,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
@@ -1670,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -1707,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="32"/>
     </row>
@@ -1729,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -1744,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -1759,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1774,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1789,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1804,7 +1801,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1834,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -1878,7 +1875,7 @@
     </row>
     <row r="21" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -1904,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="148" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="148" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1928,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
@@ -2032,7 +2029,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -2049,7 +2046,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -2066,7 +2063,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -2083,7 +2080,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -2117,7 +2114,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -2151,7 +2148,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
@@ -2198,7 +2195,7 @@
     </row>
     <row r="21" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>

--- a/China_Schach.xlsx
+++ b/China_Schach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Desktop\Software Engineering\2. Semester\GSE2\Aufgaben\Brettspiel\gse2_chinesisches_schach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F272518C-1855-40BF-B634-AE4C2E0D91FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B1777B-294C-4ECC-9E89-454F81B01EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Klassenkandidaten</t>
   </si>
@@ -220,6 +220,12 @@
 Position muss frei sein
 2. Teil der Bewegung
 Diagonal in die Bewegungsrichtung</t>
+  </si>
+  <si>
+    <t>hat Schild</t>
+  </si>
+  <si>
+    <t>Spielfigur(Schild)</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1613,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1902,14 +1908,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="148" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15" style="23" customWidth="1"/>
     <col min="4" max="5" width="13.44140625" style="23" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" style="23" customWidth="1"/>
     <col min="7" max="16384" width="10.88671875" style="23"/>
@@ -2164,11 +2170,21 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
